--- a/console/Networking/networkExcel1029/componentsMixinsXlsx/elasticNetworkMixinsXlsx/mixinsLayerElasticNetwork.xlsx
+++ b/console/Networking/networkExcel1029/componentsMixinsXlsx/elasticNetworkMixinsXlsx/mixinsLayerElasticNetwork.xlsx
@@ -1,113 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoxiangyi\Desktop\11.1\2018.11.1 京东云console-精益通-韩凯\质检-1810-31_HO_console-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ch" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ch" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mixinsLayerElasticNetwork_i18nKey_1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'主网卡'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mixinsLayerElasticNetwork_i18nKey_2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'辅助网卡'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Secondary Network Interface'</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Primary Network Interface'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+  <si>
+    <t>mixinsLayerElasticNetwork_i18nKey_1</t>
+  </si>
+  <si>
+    <t>'主网卡'</t>
+  </si>
+  <si>
+    <t>'Primary Network Interface'</t>
+  </si>
+  <si>
+    <t>mixinsLayerElasticNetwork_i18nKey_2</t>
+  </si>
+  <si>
+    <t>'辅助网卡'</t>
+  </si>
+  <si>
+    <t>'Secondary Network Interface'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,25 +73,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -466,20 +407,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col customWidth="1" max="2" min="1" width="8.88671875"/>
+    <col customWidth="1" max="3" min="3" width="30.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,25 +432,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B2" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>